--- a/message_ix/tools/add_tech/printed_data.xlsx
+++ b/message_ix/tools/add_tech/printed_data.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="technical_lifetime" sheetId="1" r:id="rId1"/>
-    <sheet name="var_cost" sheetId="2" r:id="rId2"/>
-    <sheet name="inv_cost" sheetId="3" r:id="rId3"/>
+    <sheet name="var_cost" sheetId="1" r:id="rId1"/>
+    <sheet name="growth_new_capacity_up" sheetId="2" r:id="rId2"/>
+    <sheet name="capacity_factor" sheetId="3" r:id="rId3"/>
     <sheet name="emission_factor" sheetId="4" r:id="rId4"/>
-    <sheet name="growth_new_capacity_up" sheetId="5" r:id="rId5"/>
-    <sheet name="fix_cost" sheetId="6" r:id="rId6"/>
-    <sheet name="capacity_factor" sheetId="7" r:id="rId7"/>
-    <sheet name="initial_new_capacity_up" sheetId="8" r:id="rId8"/>
+    <sheet name="technical_lifetime" sheetId="5" r:id="rId5"/>
+    <sheet name="initial_new_capacity_up" sheetId="6" r:id="rId6"/>
+    <sheet name="fix_cost" sheetId="7" r:id="rId7"/>
+    <sheet name="inv_cost" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -32,6 +32,15 @@
     <t>year_vtg</t>
   </si>
   <si>
+    <t>year_act</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -47,18 +56,6 @@
     <t>DACCS</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>year_act</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>standard</t>
   </si>
   <si>
@@ -68,7 +65,7 @@
     <t>$/kWa</t>
   </si>
   <si>
-    <t>$/kW</t>
+    <t>-</t>
   </si>
   <si>
     <t>emission</t>
@@ -83,10 +80,13 @@
     <t>tCO2/kWa</t>
   </si>
   <si>
-    <t>-</t>
+    <t>y</t>
   </si>
   <si>
     <t>GW</t>
+  </si>
+  <si>
+    <t>$/kW</t>
   </si>
 </sst>
 </file>
@@ -444,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,107 +466,326 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>710</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>134.3916379344122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>180.6111234669415</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>710</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>59.87369392383787</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>80.46523795608236</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>35.84859224085419</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>710</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>107.5133103475298</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
+      <c r="D10">
+        <v>720</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>144.4888987735532</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>710</v>
+      </c>
+      <c r="D11">
+        <v>710</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>47.8989551390703</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>710</v>
+      </c>
+      <c r="D12">
+        <v>720</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>64.37219036486589</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>720</v>
+      </c>
+      <c r="D13">
+        <v>720</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>28.67887379268335</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -575,357 +794,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
-      <c r="D2">
-        <v>700</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>700</v>
-      </c>
-      <c r="D3">
-        <v>710</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>134.3916379344122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>700</v>
-      </c>
-      <c r="D4">
-        <v>720</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>180.6111234669415</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>710</v>
-      </c>
-      <c r="D5">
-        <v>710</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>59.87369392383787</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>710</v>
-      </c>
-      <c r="D6">
-        <v>720</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>80.46523795608236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>720</v>
-      </c>
-      <c r="D7">
-        <v>720</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>35.84859224085419</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
-      </c>
-      <c r="D8">
-        <v>700</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>700</v>
-      </c>
-      <c r="D9">
-        <v>710</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>107.5133103475298</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>700</v>
-      </c>
-      <c r="D10">
-        <v>720</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>144.4888987735532</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>710</v>
-      </c>
-      <c r="D11">
-        <v>710</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>47.8989551390703</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>710</v>
-      </c>
-      <c r="D12">
-        <v>720</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>64.37219036486589</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>720</v>
-      </c>
-      <c r="D13">
-        <v>720</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>28.67887379268335</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -944,112 +812,424 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2">
-        <v>2500</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>710</v>
       </c>
       <c r="D3">
-        <v>1496.842348095947</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>720</v>
       </c>
       <c r="D4">
-        <v>896.2148060213547</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>700</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
       </c>
       <c r="D6">
-        <v>1197.473878476757</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>720</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>710</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>720</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>710</v>
+      </c>
+      <c r="D5">
+        <v>710</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>710</v>
+      </c>
+      <c r="D6">
+        <v>720</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
       </c>
       <c r="D7">
-        <v>716.9718448170838</v>
+        <v>720</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>710</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
+      <c r="D10">
+        <v>720</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>710</v>
+      </c>
+      <c r="D11">
+        <v>710</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>710</v>
+      </c>
+      <c r="D12">
+        <v>720</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>720</v>
+      </c>
+      <c r="D13">
+        <v>720</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1076,27 +1256,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
@@ -1105,24 +1285,24 @@
         <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>-20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>700</v>
@@ -1131,24 +1311,24 @@
         <v>710</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>-20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>700</v>
@@ -1157,24 +1337,24 @@
         <v>720</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>-20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>710</v>
@@ -1183,24 +1363,24 @@
         <v>710</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>-20</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
@@ -1209,24 +1389,24 @@
         <v>720</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>-20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
@@ -1235,24 +1415,24 @@
         <v>720</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>-20</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>700</v>
@@ -1261,24 +1441,24 @@
         <v>700</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>700</v>
@@ -1287,24 +1467,24 @@
         <v>710</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>700</v>
@@ -1313,24 +1493,24 @@
         <v>720</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>710</v>
@@ -1339,24 +1519,24 @@
         <v>710</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>710</v>
@@ -1365,24 +1545,24 @@
         <v>720</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>720</v>
@@ -1391,24 +1571,24 @@
         <v>720</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>700</v>
@@ -1417,24 +1597,24 @@
         <v>700</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>-20</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>700</v>
@@ -1443,24 +1623,24 @@
         <v>710</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>-20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>700</v>
@@ -1469,24 +1649,24 @@
         <v>720</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>-20</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>710</v>
@@ -1495,24 +1675,24 @@
         <v>710</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>-20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>710</v>
@@ -1521,24 +1701,24 @@
         <v>720</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>-20</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>720</v>
@@ -1547,24 +1727,24 @@
         <v>720</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>-20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>700</v>
@@ -1573,24 +1753,24 @@
         <v>700</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>700</v>
@@ -1599,24 +1779,24 @@
         <v>710</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>700</v>
@@ -1625,24 +1805,24 @@
         <v>720</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>710</v>
@@ -1651,24 +1831,24 @@
         <v>710</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>710</v>
@@ -1677,24 +1857,24 @@
         <v>720</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>720</v>
@@ -1703,16 +1883,16 @@
         <v>720</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1739,112 +1919,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>710</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>720</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>700</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1853,6 +2033,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>710</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>720</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>700</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>710</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>720</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1871,21 +2183,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
@@ -1897,15 +2209,15 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>700</v>
@@ -1917,15 +2229,15 @@
         <v>13.43916379344122</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>700</v>
@@ -1937,15 +2249,15 @@
         <v>18.06111234669415</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>710</v>
@@ -1957,15 +2269,15 @@
         <v>5.987369392383787</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
@@ -1977,15 +2289,15 @@
         <v>8.046523795608236</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
@@ -1997,15 +2309,15 @@
         <v>3.584859224085419</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>700</v>
@@ -2017,15 +2329,15 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>700</v>
@@ -2037,15 +2349,15 @@
         <v>10.75133103475298</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>700</v>
@@ -2057,15 +2369,15 @@
         <v>14.44888987735532</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>710</v>
@@ -2077,15 +2389,15 @@
         <v>4.78989551390703</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>710</v>
@@ -2097,15 +2409,15 @@
         <v>6.437219036486589</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>720</v>
@@ -2117,319 +2429,7 @@
         <v>2.867887379268335</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
-      <c r="D2">
-        <v>700</v>
-      </c>
-      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>700</v>
-      </c>
-      <c r="D3">
-        <v>710</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>700</v>
-      </c>
-      <c r="D4">
-        <v>720</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>710</v>
-      </c>
-      <c r="D5">
-        <v>710</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>710</v>
-      </c>
-      <c r="D6">
-        <v>720</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>720</v>
-      </c>
-      <c r="D7">
-        <v>720</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
-      </c>
-      <c r="D8">
-        <v>700</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>700</v>
-      </c>
-      <c r="D9">
-        <v>710</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>700</v>
-      </c>
-      <c r="D10">
-        <v>720</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>710</v>
-      </c>
-      <c r="D11">
-        <v>710</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>710</v>
-      </c>
-      <c r="D12">
-        <v>720</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>720</v>
-      </c>
-      <c r="D13">
-        <v>720</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2456,24 +2456,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>2500</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>710</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>1496.842348095947</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -2498,16 +2498,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>720</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>896.2148060213547</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>700</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>2000</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2532,16 +2532,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>710</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1197.473878476757</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2549,16 +2549,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>720</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>716.9718448170838</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
